--- a/biology/Zoologie/Bécasseau_à_longs_doigts/Bécasseau_à_longs_doigts.xlsx
+++ b/biology/Zoologie/Bécasseau_à_longs_doigts/Bécasseau_à_longs_doigts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_%C3%A0_longs_doigts</t>
+          <t>Bécasseau_à_longs_doigts</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calidris subminuta
 Le Bécasseau à longs doigts (Calidris subminuta) est une espèce de petits oiseaux limicoles (qui se nourrissent dans la boue).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_%C3%A0_longs_doigts</t>
+          <t>Bécasseau_à_longs_doigts</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 13 à 15 cm. Il possède de longues pattes jaunâtres et un long cou mis en évidence lorsqu'il se dresse.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_%C3%A0_longs_doigts</t>
+          <t>Bécasseau_à_longs_doigts</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire fragmentée s'étend à travers les forêts de Sibérie ; il hiverne dans l'écozone indomalaise, en Nouvelle-Guinée et de manière plus dissoute en Australie.
-Il a été repéré en Angleterre en 1970, 1982, septembre 2011 et octobre 2021 ; en Irlande en 1996, en Finlande en 2007, aux Pays-Bas en 2009, en Allemagne en juin 2011, et pour la première fois en France en novembre 2011[1].
+Il a été repéré en Angleterre en 1970, 1982, septembre 2011 et octobre 2021 ; en Irlande en 1996, en Finlande en 2007, aux Pays-Bas en 2009, en Allemagne en juin 2011, et pour la première fois en France en novembre 2011.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9casseau_%C3%A0_longs_doigts</t>
+          <t>Bécasseau_à_longs_doigts</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bécasseau à longs doigts se nourrit seul ou en petits groupes, parfois en compagnie d'autres limicoles, dans la végétation palustre ou aquatique. Alarmé, il étire son cou à la manière d'un Combattant varié ou d'un Bécasseau à queue pointue.
 </t>
